--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\asim\RAG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591FC2E5-436E-4849-BEB4-72672E167293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D30DC6-7BDE-4325-A8FE-E2232FBF6111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Assessment Questions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applicable?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Non-Technical Executive Summary                                                                                                                  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Institutional, Legal, and Administrative Framework                                                                                          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Project Description                                                                                                                                          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Project Operations                                                                                                                                           </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.1a</t>
+    </r>
+  </si>
   <si>
     <r>
       <rPr>
@@ -34,6 +136,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.1b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -44,6 +157,39 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.1c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.1d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.1e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -54,6 +200,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.1f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -64,6 +221,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.1g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -74,6 +242,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -84,6 +263,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.1i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -110,6 +300,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.1j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -136,6 +337,57 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Used resources and production process                                                                                                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.2a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -162,6 +414,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.2b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -188,6 +451,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.2c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -214,6 +488,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.2d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -224,6 +509,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.2e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -234,6 +530,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.2f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -244,6 +551,57 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Emissions and violations                                                                                                                                 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.3a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -254,6 +612,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.3b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -280,6 +649,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.3c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -306,6 +686,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.3d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -332,6 +723,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.3e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -358,6 +760,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.3f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -400,6 +813,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.3g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -442,6 +866,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.3h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -452,6 +887,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.3i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -462,6 +908,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.3j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -472,6 +929,57 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Description of the environmental baseline                                                                                                       </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.0a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -482,6 +990,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.0b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -492,6 +1011,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.0c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -502,6 +1032,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.0d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -512,6 +1053,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.0e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -538,6 +1090,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.0f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -548,6 +1111,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.0g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -558,6 +1132,57 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Environmental impacts                                                                                                                                    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.0a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -584,6 +1209,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.0b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -626,6 +1262,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.0c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -652,6 +1299,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.0d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -678,6 +1336,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.0e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -720,6 +1389,57 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Impacts Anticipation and Assessment                                                                                                             </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.1a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -730,6 +1450,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.1b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -756,6 +1487,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.1c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -782,6 +1524,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.1d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -808,6 +1561,57 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Analysis and Description of Alternatives                                                                                                          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>6.0a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -818,6 +1622,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>6.0b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -828,6 +1643,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>6.0c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -838,6 +1664,57 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mitigation measures                                                                                                                                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>7.0a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -864,6 +1741,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>7.0b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -874,6 +1762,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>7.0c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -900,6 +1799,57 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Environmental monitoring and management plan                                                                                            </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.0a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -910,6 +1860,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.0b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -936,6 +1897,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.0c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -946,6 +1918,46 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.0a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -956,6 +1968,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.0b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -966,6 +1989,17 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.0d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
@@ -984,6 +2018,36 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.0f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Is the study considered objective and free of bias? And negative impacts have not been hidden or ignored?</t>
+    </r>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Assessment Questions</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">. </t>
   </si>
   <si>
@@ -993,7 +2057,13 @@
     <t>Has the project site layout been described?</t>
   </si>
   <si>
-    <t>can you suggest similar international EIA reports for Service Corridors like this report?</t>
+    <t xml:space="preserve">Presentation and coordination quality                                                                                                              </t>
+  </si>
+  <si>
+    <t>can you suggest similar international EIA reports for Service Corridors like this report</t>
+  </si>
+  <si>
+    <t>9.0f</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +2073,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.0;###0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1029,6 +2099,19 @@
     <font>
       <sz val="9"/>
       <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1082,7 +2165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1105,37 +2188,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1157,58 +2214,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1515,10 +2551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:C68"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1531,633 +2567,815 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="10"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="11"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15"/>
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15"/>
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="17"/>
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="17"/>
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15"/>
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="15"/>
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="15"/>
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15"/>
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="12"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="19"/>
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="19"/>
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="19"/>
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="14"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="19"/>
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="14"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="19"/>
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="14"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="15"/>
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="12"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="15"/>
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="12"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="15"/>
+      <c r="A23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="12"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="15"/>
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="12"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="19"/>
+      <c r="A26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="14"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="19"/>
+      <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="19"/>
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="14"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="19"/>
+      <c r="A29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="14"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="19"/>
+      <c r="A30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="14"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="19"/>
+      <c r="A31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="14"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="15"/>
+      <c r="A32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="12"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="15"/>
+      <c r="A33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="12"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="15"/>
+      <c r="A34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="12"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="C35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="15"/>
+      <c r="A36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="12"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="15"/>
+      <c r="A37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="12"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="15"/>
+      <c r="A38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="12"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="15"/>
+      <c r="A39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="12"/>
       <c r="D39" s="6" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="19"/>
+      <c r="A40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="14"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="15"/>
+      <c r="A41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="12"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="15"/>
+      <c r="A42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="12"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="C43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="19"/>
+      <c r="A44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="14"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="19"/>
+      <c r="A45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="14"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="19"/>
+      <c r="A46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="14"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="19"/>
+      <c r="A48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="14"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="19"/>
+      <c r="A49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="14"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="C50" s="11"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="15"/>
+      <c r="A51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="12"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="19"/>
+      <c r="A52" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="14"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="19"/>
+      <c r="A53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="14"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="19"/>
+      <c r="A54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="14"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="10"/>
+      <c r="A55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="C55" s="11"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="15"/>
+      <c r="A56" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="12"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="15"/>
+      <c r="A57" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="12"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="15"/>
+      <c r="A58" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="12"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="10"/>
+      <c r="A59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="C59" s="11"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="19"/>
+      <c r="A60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="14"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="15"/>
+      <c r="A61" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="12"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="19"/>
+      <c r="A62" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="14"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="C63" s="11"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="15"/>
+      <c r="A64" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="12"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="19"/>
+    <row r="65" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="14"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="15"/>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="12"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
+    <row r="67" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="11"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="15"/>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="12"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="15"/>
+    <row r="69" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="12"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="15"/>
+    <row r="70" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="12"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="15"/>
+    <row r="71" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="12"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+    <row r="72" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G72:H72"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
@@ -2224,6 +3442,10 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
